--- a/Assignments.xlsx
+++ b/Assignments.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\namat\Documents\Testing\Functional\QExG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17F8A513-D4E6-4283-8A8E-6F99B7E3D143}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C3F6B78-05D3-46B9-ACCF-4D88B6D583DD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{AAF54E7B-9ACB-40E4-A83D-BB1763CAAB75}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{AAF54E7B-9ACB-40E4-A83D-BB1763CAAB75}"/>
   </bookViews>
   <sheets>
     <sheet name="2 int addition" sheetId="1" r:id="rId1"/>
@@ -2644,7 +2644,7 @@
   <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3274,7 +3274,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
@@ -4007,7 +4007,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:G46"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="86" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView zoomScale="86" zoomScaleNormal="60" workbookViewId="0">
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
@@ -4830,8 +4830,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:A26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
